--- a/graficas.xlsx
+++ b/graficas.xlsx
@@ -283,7 +283,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -369,11 +369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128667648"/>
+        <c:axId val="148267776"/>
         <c:axId val="128671104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128667648"/>
+        <c:axId val="148267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,11 +397,11 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128667648"/>
+        <c:crossAx val="148267776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,7 +748,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N3" sqref="N3:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
